--- a/results/intermediate_result/mesh_term_freq_per_faculty_HealthDomain.xlsx
+++ b/results/intermediate_result/mesh_term_freq_per_faculty_HealthDomain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Attitude to Health</t>
+          <t>Cardiovascular Diseases</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cardiovascular Diseases</t>
+          <t>Cooperative Behavior</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Cooperative Behavior</t>
+          <t>Interpersonal Relations</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Interpersonal Relations</t>
+          <t>Male Urogenital Diseases</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Male Urogenital Diseases</t>
+          <t>Nervous System Diseases</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Nervous System Diseases</t>
+          <t>Signs and Symptoms</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Signs and Symptoms</t>
+          <t>Skin Diseases</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Skin Diseases</t>
+          <t>Skin and Connective Tissue Diseases</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Skin and Connective Tissue Diseases</t>
+          <t>Social Behavior</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1455,11 +1455,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Social Behavior</t>
+          <t>Female Urogenital Diseases</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Female Urogenital Diseases</t>
+          <t>Female Urogenital Diseases and Pregnancy Complications</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1501,11 +1501,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Female Urogenital Diseases and Pregnancy Complications</t>
+          <t>Alzheimer Disease</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Alzheimer Disease</t>
+          <t>Body Weight</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Body Weight</t>
+          <t>Brain Diseases</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Brain Diseases</t>
+          <t>Central Nervous System Diseases</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Central Nervous System Diseases</t>
+          <t>Dementia</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Dementia</t>
+          <t>Digestive System Diseases</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Digestive System Diseases</t>
+          <t>Immune System Diseases</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Health Knowledge, Attitudes, Practice</t>
+          <t>Interprofessional Relations</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Immune System Diseases</t>
+          <t>Kidney Diseases</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Interprofessional Relations</t>
+          <t>Molecular Medicine</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Kidney Diseases</t>
+          <t>Neurocognitive Disorders</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Molecular Medicine</t>
+          <t>Neurodegenerative Diseases</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Neurocognitive Disorders</t>
+          <t>Nutrition Disorders</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Neurodegenerative Diseases</t>
+          <t>Obesity</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Nutrition Disorders</t>
+          <t>Overnutrition</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Obesity</t>
+          <t>Overweight</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Overnutrition</t>
+          <t>Tauopathies</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Overweight</t>
+          <t>Urogenital System</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Tauopathies</t>
+          <t>Urologic Diseases</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Urogenital System</t>
+          <t>Vascular Diseases</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1961,11 +1961,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Urologic Diseases</t>
+          <t>Breast Diseases</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1984,11 +1984,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Vascular Diseases</t>
+          <t>Breast Neoplasms</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Breast Diseases</t>
+          <t>Digestive System Neoplasms</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Breast Neoplasms</t>
+          <t>Genital Diseases</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Digestive System Neoplasms</t>
+          <t>Hypertension</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Genital Diseases</t>
+          <t>Kidney</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Hypertension</t>
+          <t>Nephrons</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Kidney</t>
+          <t>Urinary Tract</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -2145,11 +2145,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Nephrons</t>
+          <t>Autoimmune Diseases</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2168,11 +2168,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Urinary Tract</t>
+          <t>Bacterial Infections</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Autoimmune Diseases</t>
+          <t>Bacterial Infections and Mycoses</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Bacterial Infections</t>
+          <t>Chemically-Induced Disorders</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Bacterial Infections and Mycoses</t>
+          <t>Chronic Disease</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Chemically-Induced Disorders</t>
+          <t>Colonic Diseases</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Chronic Disease</t>
+          <t>Colorectal Neoplasms</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Colonic Diseases</t>
+          <t>Dermatology</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Colorectal Neoplasms</t>
+          <t>Diabetes Complications</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Dermatology</t>
+          <t>Diabetes Mellitus, Type 1</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Diabetes Complications</t>
+          <t>Disease</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Diabetes Mellitus, Type 1</t>
+          <t>Endocrine Gland Neoplasms</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Disease</t>
+          <t>Forensic Medicine</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Endocrine Gland Neoplasms</t>
+          <t>Forensic Psychiatry</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Forensic Medicine</t>
+          <t>Gastrointestinal Diseases</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Gastrointestinal Diseases</t>
+          <t>Gastrointestinal Neoplasms</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Gastrointestinal Neoplasms</t>
+          <t>Genital Diseases, Male</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Genital Diseases, Male</t>
+          <t>Health Behavior</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Health Behavior</t>
+          <t>Heart Diseases</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -2582,7 +2582,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Heart Diseases</t>
+          <t>Internal Medicine</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Internal Medicine</t>
+          <t>Intestinal Diseases</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Intestinal Diseases</t>
+          <t>Intestinal Neoplasms</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Intestinal Neoplasms</t>
+          <t>Kidney Tubules</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Kidney Tubules</t>
+          <t>Medical Oncology</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Medical Oncology</t>
+          <t>Myocardial Ischemia</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Myocardial Ischemia</t>
+          <t>Nausea</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Nausea</t>
+          <t>Postoperative Complications</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Patient Acceptance of Health Care</t>
+          <t>Prostatic Diseases</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Postoperative Complications</t>
+          <t>Psychiatry</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Prostatic Diseases</t>
+          <t>Rare Diseases</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Psychiatry</t>
+          <t>Rectal Diseases</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Rare Diseases</t>
+          <t>Renal Insufficiency</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Rectal Diseases</t>
+          <t>Renal Insufficiency, Chronic</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Renal Insufficiency</t>
+          <t>Signs and Symptoms, Digestive</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Renal Insufficiency, Chronic</t>
+          <t>Trust</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Signs and Symptoms, Digestive</t>
+          <t>Vomiting</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -2962,75 +2962,6 @@
         </is>
       </c>
       <c r="E110" t="inlineStr">
-        <is>
-          <t>Weng</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>1</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Treatment Adherence and Compliance</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>2</v>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Chunhua</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Weng</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>1</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Trust</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>2</v>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Chunhua</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Weng</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>1</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Vomiting</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>2</v>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Chunhua</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
         <is>
           <t>Weng</t>
         </is>
